--- a/artfynd/A 25562-2023.xlsx
+++ b/artfynd/A 25562-2023.xlsx
@@ -1707,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111221699</v>
+        <v>111221736</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1723,35 +1723,27 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1759,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>443097.6233577073</v>
+        <v>443249.6264723797</v>
       </c>
       <c r="R11" t="n">
-        <v>6909995.088246249</v>
+        <v>6909840.911127058</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1805,6 +1797,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1831,7 +1828,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111221736</v>
+        <v>111221709</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1875,10 +1872,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>443249.6264723797</v>
+        <v>443254.9775056695</v>
       </c>
       <c r="R12" t="n">
-        <v>6909840.911127058</v>
+        <v>6909826.869210822</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1952,10 +1949,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111221709</v>
+        <v>111221699</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1968,27 +1965,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1996,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>443254.9775056695</v>
+        <v>443097.6233577073</v>
       </c>
       <c r="R13" t="n">
-        <v>6909826.869210822</v>
+        <v>6909995.088246249</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2042,11 +2047,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 25562-2023.xlsx
+++ b/artfynd/A 25562-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101188502</v>
+        <v>101185517</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>443372.9596193716</v>
+        <v>443198.490593656</v>
       </c>
       <c r="R3" t="n">
-        <v>6909394.679763782</v>
+        <v>6909846.427368461</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101185517</v>
+        <v>101185534</v>
       </c>
       <c r="B4" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101187646</v>
+        <v>111221736</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,38 +1035,41 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Knätten NB, Hjd</t>
+          <t>A 25562-2023, Hjd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>443331.2068214896</v>
+        <v>443249.6264723797</v>
       </c>
       <c r="R5" t="n">
-        <v>6909321.897501401</v>
+        <v>6909840.911127058</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1090,7 +1093,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1100,12 +1103,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,22 +1128,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Alexander Singer</t>
+          <t>Christer Johansson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Alexander Singer</t>
+          <t>Christer Johansson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101188539</v>
+        <v>111221709</v>
       </c>
       <c r="B6" t="n">
-        <v>96354</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,43 +1152,45 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Knätten NB, Hjd</t>
+          <t>A 25562-2023, Hjd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>443349.9363240626</v>
+        <v>443254.9775056695</v>
       </c>
       <c r="R6" t="n">
-        <v>6909410.417016066</v>
+        <v>6909826.869210822</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1204,7 +1214,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1214,12 +1224,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1234,22 +1249,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Alexander Singer</t>
+          <t>Christer Johansson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Alexander Singer</t>
+          <t>Christer Johansson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>101185534</v>
+        <v>111221699</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>56543</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,38 +1277,49 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Knätten NB, Hjd</t>
+          <t>A 25562-2023, Hjd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>443198.490593656</v>
+        <v>443097.6233577073</v>
       </c>
       <c r="R7" t="n">
-        <v>6909846.427368461</v>
+        <v>6909995.088246249</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1317,7 +1343,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1327,7 +1353,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1347,22 +1373,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Alexander Singer</t>
+          <t>Christer Johansson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Alexander Singer</t>
+          <t>Christer Johansson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101188150</v>
+        <v>101188502</v>
       </c>
       <c r="B8" t="n">
-        <v>89338</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1375,37 +1401,35 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>112</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Knätten NB, Hjd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>443320.66748062</v>
+        <v>443372.9596193716</v>
       </c>
       <c r="R8" t="n">
-        <v>6909359.749755096</v>
+        <v>6909394.679763782</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1456,7 +1480,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1475,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>101208904</v>
+        <v>101187646</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1491,37 +1514,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Knätten NB, Hjd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>443320.66748062</v>
+        <v>443331.2068214896</v>
       </c>
       <c r="R9" t="n">
-        <v>6909359.749755096</v>
+        <v>6909321.897501401</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1572,7 +1593,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1591,10 +1611,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>101208905</v>
+        <v>101188539</v>
       </c>
       <c r="B10" t="n">
-        <v>89734</v>
+        <v>96354</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,41 +1623,40 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2063</v>
+        <v>221952</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Knätten NB, Hjd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>443320.66748062</v>
+        <v>443349.9363240626</v>
       </c>
       <c r="R10" t="n">
-        <v>6909359.749755096</v>
+        <v>6909410.417016066</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1688,7 +1707,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1707,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111221736</v>
+        <v>101188150</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89338</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1723,41 +1741,40 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>112</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>A 25562-2023, Hjd</t>
+          <t>Knätten NB, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>443249.6264723797</v>
+        <v>443320.66748062</v>
       </c>
       <c r="R11" t="n">
-        <v>6909840.911127058</v>
+        <v>6909359.749755096</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1781,7 +1798,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1791,7 +1808,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1799,39 +1816,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Christer Johansson</t>
+          <t>Alexander Singer</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Christer Johansson</t>
+          <t>Alexander Singer</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111221709</v>
+        <v>101208904</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89392</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1844,41 +1857,40 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>A 25562-2023, Hjd</t>
+          <t>Knätten NB, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>443254.9775056695</v>
+        <v>443320.66748062</v>
       </c>
       <c r="R12" t="n">
-        <v>6909826.869210822</v>
+        <v>6909359.749755096</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1902,7 +1914,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1912,7 +1924,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1920,39 +1932,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Christer Johansson</t>
+          <t>Alexander Singer</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Christer Johansson</t>
+          <t>Alexander Singer</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111221699</v>
+        <v>101208905</v>
       </c>
       <c r="B13" t="n">
-        <v>56543</v>
+        <v>89734</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1961,53 +1969,44 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>2063</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>A 25562-2023, Hjd</t>
+          <t>Knätten NB, Hjd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>443097.6233577073</v>
+        <v>443320.66748062</v>
       </c>
       <c r="R13" t="n">
-        <v>6909995.088246249</v>
+        <v>6909359.749755096</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2031,7 +2030,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2041,7 +2040,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2055,18 +2054,19 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Christer Johansson</t>
+          <t>Alexander Singer</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Christer Johansson</t>
+          <t>Alexander Singer</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
